--- a/2023/south-korea_k-league-1_2023.xlsx
+++ b/2023/south-korea_k-league-1_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V180"/>
+  <dimension ref="A1:V182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2505,30 +2505,30 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Daegu</t>
+          <t>Suwon Bluewings</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Jeonbuk</t>
+          <t>Daejeon</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>3.03</v>
+        <v>2.26</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>12/03/2023 08:42</t>
+          <t>12/03/2023 16:13</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>4.22</v>
+        <v>2.24</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2536,31 +2536,31 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.44</v>
+        <v>3.36</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>12/03/2023 08:42</t>
+          <t>12/03/2023 16:13</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>19/03/2023 05:58</t>
+          <t>19/03/2023 05:59</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.43</v>
+        <v>3.35</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>12/03/2023 08:42</t>
+          <t>12/03/2023 16:13</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>1.97</v>
+        <v>3.52</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-korea/k-league-1/daegu-jeonbuk/COTMsDui/</t>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/suwon-bluewings-daejeon/jFSQtXfc/</t>
         </is>
       </c>
     </row>
@@ -2597,30 +2597,30 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Suwon Bluewings</t>
+          <t>Daegu</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Daejeon</t>
+          <t>Jeonbuk</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2.26</v>
+        <v>3.03</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>12/03/2023 16:13</t>
+          <t>12/03/2023 08:42</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.24</v>
+        <v>4.22</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2628,40 +2628,40 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.36</v>
+        <v>3.44</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>12/03/2023 16:13</t>
+          <t>12/03/2023 08:42</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
+          <t>19/03/2023 05:58</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>12/03/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
           <t>19/03/2023 05:59</t>
         </is>
       </c>
-      <c r="R24" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>12/03/2023 16:13</t>
-        </is>
-      </c>
-      <c r="T24" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>19/03/2023 05:59</t>
-        </is>
-      </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-korea/k-league-1/suwon-bluewings-daejeon/jFSQtXfc/</t>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/daegu-jeonbuk/COTMsDui/</t>
         </is>
       </c>
     </row>
@@ -6001,71 +6001,71 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Daegu</t>
+          <t>Seoul</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Ulsan Hyundai</t>
+          <t>Jeonbuk</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>4.15</v>
+        <v>2.64</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>30/04/2023 12:12</t>
+          <t>29/04/2023 09:42</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>4.06</v>
+        <v>2.36</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>05/05/2023 06:51</t>
+          <t>05/05/2023 06:59</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.6</v>
+        <v>3.37</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>30/04/2023 12:12</t>
+          <t>29/04/2023 09:42</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.65</v>
+        <v>3.37</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>05/05/2023 06:51</t>
+          <t>05/05/2023 06:59</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>1.92</v>
+        <v>2.81</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>30/04/2023 12:12</t>
+          <t>29/04/2023 09:42</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>1.97</v>
+        <v>3.26</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>05/05/2023 06:50</t>
+          <t>05/05/2023 06:59</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-korea/k-league-1/daegu-ulsan-hyundai/rqC4JcbP/</t>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/seoul-jeonbuk/tvYLfELO/</t>
         </is>
       </c>
     </row>
@@ -6093,71 +6093,71 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Seoul</t>
+          <t>Daegu</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Jeonbuk</t>
+          <t>Ulsan Hyundai</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J62" t="n">
-        <v>2.64</v>
+        <v>4.15</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>29/04/2023 09:42</t>
+          <t>30/04/2023 12:12</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.36</v>
+        <v>4.06</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>05/05/2023 06:59</t>
+          <t>05/05/2023 06:51</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.37</v>
+        <v>3.6</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>29/04/2023 09:42</t>
+          <t>30/04/2023 12:12</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.37</v>
+        <v>3.65</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>05/05/2023 06:59</t>
+          <t>05/05/2023 06:51</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>2.81</v>
+        <v>1.92</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>29/04/2023 09:42</t>
+          <t>30/04/2023 12:12</t>
         </is>
       </c>
       <c r="T62" t="n">
-        <v>3.26</v>
+        <v>1.97</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>05/05/2023 06:59</t>
+          <t>05/05/2023 06:50</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-korea/k-league-1/seoul-jeonbuk/tvYLfELO/</t>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/daegu-ulsan-hyundai/rqC4JcbP/</t>
         </is>
       </c>
     </row>
@@ -12349,71 +12349,71 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Daejeon</t>
+          <t>Seoul</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Jeonbuk</t>
+          <t>Suwon FC</t>
         </is>
       </c>
       <c r="I130" t="n">
         <v>2</v>
       </c>
       <c r="J130" t="n">
-        <v>3.15</v>
+        <v>1.61</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>09/07/2023 12:12</t>
+          <t>08/07/2023 12:42</t>
         </is>
       </c>
       <c r="L130" t="n">
-        <v>3.42</v>
+        <v>1.58</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>12/07/2023 12:24</t>
+          <t>12/07/2023 12:20</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>3.56</v>
+        <v>4.3</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>09/07/2023 12:12</t>
+          <t>08/07/2023 12:42</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>3.58</v>
+        <v>4.6</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>12/07/2023 12:24</t>
+          <t>12/07/2023 12:29</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>2.31</v>
+        <v>5.5</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
-          <t>09/07/2023 12:12</t>
+          <t>08/07/2023 12:42</t>
         </is>
       </c>
       <c r="T130" t="n">
-        <v>2.19</v>
+        <v>5.54</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>12/07/2023 12:24</t>
+          <t>12/07/2023 12:29</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-korea/k-league-1/daejeon-jeonbuk/f18J5GpP/</t>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/seoul-suwon-fc/6oFysX7O/</t>
         </is>
       </c>
     </row>
@@ -12533,71 +12533,71 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Seoul</t>
+          <t>Daejeon</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Suwon FC</t>
+          <t>Jeonbuk</t>
         </is>
       </c>
       <c r="I132" t="n">
         <v>2</v>
       </c>
       <c r="J132" t="n">
-        <v>1.61</v>
+        <v>3.15</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>08/07/2023 12:42</t>
+          <t>09/07/2023 12:12</t>
         </is>
       </c>
       <c r="L132" t="n">
-        <v>1.58</v>
+        <v>3.42</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>12/07/2023 12:20</t>
+          <t>12/07/2023 12:24</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>4.3</v>
+        <v>3.56</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>08/07/2023 12:42</t>
+          <t>09/07/2023 12:12</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>4.6</v>
+        <v>3.58</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>12/07/2023 12:29</t>
+          <t>12/07/2023 12:24</t>
         </is>
       </c>
       <c r="R132" t="n">
-        <v>5.5</v>
+        <v>2.31</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
-          <t>08/07/2023 12:42</t>
+          <t>09/07/2023 12:12</t>
         </is>
       </c>
       <c r="T132" t="n">
-        <v>5.54</v>
+        <v>2.19</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>12/07/2023 12:29</t>
+          <t>12/07/2023 12:24</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-korea/k-league-1/seoul-suwon-fc/6oFysX7O/</t>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/daejeon-jeonbuk/f18J5GpP/</t>
         </is>
       </c>
     </row>
@@ -15017,7 +15017,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Ulsan Hyundai</t>
+          <t>Gangwon</t>
         </is>
       </c>
       <c r="G159" t="n">
@@ -15025,63 +15025,63 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Jeonbuk</t>
+          <t>Suwon FC</t>
         </is>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J159" t="n">
-        <v>1.98</v>
+        <v>2.24</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>12/08/2023 12:42</t>
+          <t>12/08/2023 13:13</t>
         </is>
       </c>
       <c r="L159" t="n">
-        <v>2.31</v>
+        <v>2.13</v>
       </c>
       <c r="M159" t="inlineStr">
         <is>
+          <t>19/08/2023 11:54</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>12/08/2023 13:13</t>
+        </is>
+      </c>
+      <c r="P159" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>19/08/2023 11:53</t>
+        </is>
+      </c>
+      <c r="R159" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="S159" t="inlineStr">
+        <is>
+          <t>12/08/2023 13:13</t>
+        </is>
+      </c>
+      <c r="T159" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="U159" t="inlineStr">
+        <is>
           <t>19/08/2023 11:59</t>
         </is>
       </c>
-      <c r="N159" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="O159" t="inlineStr">
-        <is>
-          <t>12/08/2023 12:42</t>
-        </is>
-      </c>
-      <c r="P159" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="Q159" t="inlineStr">
-        <is>
-          <t>19/08/2023 11:57</t>
-        </is>
-      </c>
-      <c r="R159" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="S159" t="inlineStr">
-        <is>
-          <t>12/08/2023 12:42</t>
-        </is>
-      </c>
-      <c r="T159" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="U159" t="inlineStr">
-        <is>
-          <t>19/08/2023 11:59</t>
-        </is>
-      </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-korea/k-league-1/ulsan-hyundai-jeonbuk/6sJi405k/</t>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/gangwon-suwon-fc/04Ie3KKe/</t>
         </is>
       </c>
     </row>
@@ -15109,7 +15109,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Gangwon</t>
+          <t>Ulsan Hyundai</t>
         </is>
       </c>
       <c r="G160" t="n">
@@ -15117,54 +15117,54 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Suwon FC</t>
+          <t>Jeonbuk</t>
         </is>
       </c>
       <c r="I160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>2.24</v>
+        <v>1.98</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>12/08/2023 13:13</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="L160" t="n">
-        <v>2.13</v>
+        <v>2.31</v>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>19/08/2023 11:54</t>
+          <t>19/08/2023 11:59</t>
         </is>
       </c>
       <c r="N160" t="n">
-        <v>3.6</v>
+        <v>3.77</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>12/08/2023 13:13</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>3.74</v>
+        <v>3.58</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>19/08/2023 11:53</t>
+          <t>19/08/2023 11:57</t>
         </is>
       </c>
       <c r="R160" t="n">
-        <v>3.18</v>
+        <v>3.69</v>
       </c>
       <c r="S160" t="inlineStr">
         <is>
-          <t>12/08/2023 13:13</t>
+          <t>12/08/2023 12:42</t>
         </is>
       </c>
       <c r="T160" t="n">
-        <v>3.42</v>
+        <v>3.17</v>
       </c>
       <c r="U160" t="inlineStr">
         <is>
@@ -15173,7 +15173,7 @@
       </c>
       <c r="V160" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-korea/k-league-1/gangwon-suwon-fc/04Ie3KKe/</t>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/ulsan-hyundai-jeonbuk/6sJi405k/</t>
         </is>
       </c>
     </row>
@@ -17014,6 +17014,190 @@
       <c r="V180" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/south-korea/k-league-1/suwon-bluewings-daegu/84xDSzl7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>south-korea</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>k-league-1</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>45192.29166666666</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Daejeon</t>
+        </is>
+      </c>
+      <c r="G181" t="n">
+        <v>3</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Suwon Bluewings</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>1</v>
+      </c>
+      <c r="J181" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>17/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>23/09/2023 06:37</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>17/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P181" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>23/09/2023 06:37</t>
+        </is>
+      </c>
+      <c r="R181" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="S181" t="inlineStr">
+        <is>
+          <t>17/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T181" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="U181" t="inlineStr">
+        <is>
+          <t>23/09/2023 06:37</t>
+        </is>
+      </c>
+      <c r="V181" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/daejeon-suwon-bluewings/neyHRf3D/</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>south-korea</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>k-league-1</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>45192.39583333334</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Jeju Utd</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
+        <v>1</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Seoul</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>3</v>
+      </c>
+      <c r="J182" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>17/09/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>23/09/2023 09:29</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>17/09/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P182" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>23/09/2023 09:29</t>
+        </is>
+      </c>
+      <c r="R182" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="S182" t="inlineStr">
+        <is>
+          <t>17/09/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T182" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U182" t="inlineStr">
+        <is>
+          <t>23/09/2023 09:29</t>
+        </is>
+      </c>
+      <c r="V182" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/jeju-utd-seoul/l0FajvtE/</t>
         </is>
       </c>
     </row>

--- a/2023/south-korea_k-league-1_2023.xlsx
+++ b/2023/south-korea_k-league-1_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V182"/>
+  <dimension ref="A1:V186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2505,30 +2505,30 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Suwon Bluewings</t>
+          <t>Daegu</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Daejeon</t>
+          <t>Jeonbuk</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2.26</v>
+        <v>3.03</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>12/03/2023 16:13</t>
+          <t>12/03/2023 08:42</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.24</v>
+        <v>4.22</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2536,40 +2536,40 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.36</v>
+        <v>3.44</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>12/03/2023 16:13</t>
+          <t>12/03/2023 08:42</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
+          <t>19/03/2023 05:58</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>12/03/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
           <t>19/03/2023 05:59</t>
         </is>
       </c>
-      <c r="R23" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>12/03/2023 16:13</t>
-        </is>
-      </c>
-      <c r="T23" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>19/03/2023 05:59</t>
-        </is>
-      </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-korea/k-league-1/suwon-bluewings-daejeon/jFSQtXfc/</t>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/daegu-jeonbuk/COTMsDui/</t>
         </is>
       </c>
     </row>
@@ -2597,30 +2597,30 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Daegu</t>
+          <t>Suwon Bluewings</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Jeonbuk</t>
+          <t>Daejeon</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>3.03</v>
+        <v>2.26</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>12/03/2023 08:42</t>
+          <t>12/03/2023 16:13</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>4.22</v>
+        <v>2.24</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2628,31 +2628,31 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.44</v>
+        <v>3.36</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>12/03/2023 08:42</t>
+          <t>12/03/2023 16:13</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>19/03/2023 05:58</t>
+          <t>19/03/2023 05:59</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.43</v>
+        <v>3.35</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>12/03/2023 08:42</t>
+          <t>12/03/2023 16:13</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>1.97</v>
+        <v>3.52</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-korea/k-league-1/daegu-jeonbuk/COTMsDui/</t>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/suwon-bluewings-daejeon/jFSQtXfc/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Daegu</t>
+          <t>Ulsan Hyundai</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Daejeon</t>
+          <t>Pohang</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>2.31</v>
+        <v>1.92</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>17/04/2023 04:11</t>
+          <t>16/04/2023 09:42</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.58</v>
+        <v>2.04</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>22/04/2023 09:29</t>
+          <t>22/04/2023 09:21</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.48</v>
+        <v>3.69</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>17/04/2023 04:11</t>
+          <t>16/04/2023 09:42</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.44</v>
+        <v>3.3</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>22/04/2023 09:29</t>
+          <t>22/04/2023 09:27</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.25</v>
+        <v>4.15</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>17/04/2023 04:11</t>
+          <t>16/04/2023 09:42</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.86</v>
+        <v>4.26</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>22/04/2023 09:28</t>
+          <t>22/04/2023 09:27</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-korea/k-league-1/daegu-daejeon/hxnn57wF/</t>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/ulsan-hyundai-pohang/6ujj4RhL/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Ulsan Hyundai</t>
+          <t>Daegu</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Pohang</t>
+          <t>Daejeon</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>1.92</v>
+        <v>2.31</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>16/04/2023 09:42</t>
+          <t>17/04/2023 04:11</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.04</v>
+        <v>2.58</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>22/04/2023 09:21</t>
+          <t>22/04/2023 09:29</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.69</v>
+        <v>3.48</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>16/04/2023 09:42</t>
+          <t>17/04/2023 04:11</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.3</v>
+        <v>3.44</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>22/04/2023 09:27</t>
+          <t>22/04/2023 09:29</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>4.15</v>
+        <v>3.25</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>16/04/2023 09:42</t>
+          <t>17/04/2023 04:11</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>4.26</v>
+        <v>2.86</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>22/04/2023 09:27</t>
+          <t>22/04/2023 09:28</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-korea/k-league-1/ulsan-hyundai-pohang/6ujj4RhL/</t>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/daegu-daejeon/hxnn57wF/</t>
         </is>
       </c>
     </row>
@@ -6645,71 +6645,71 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Seoul</t>
+          <t>Daegu</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Gwangju FC</t>
+          <t>Pohang</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>2.41</v>
+        <v>3.05</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>06/05/2023 12:13</t>
+          <t>06/05/2023 07:12</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.29</v>
+        <v>3.45</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>09/05/2023 12:07</t>
+          <t>09/05/2023 12:29</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.33</v>
+        <v>3.4</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>06/05/2023 12:13</t>
+          <t>06/05/2023 07:12</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.35</v>
+        <v>3.27</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>09/05/2023 12:08</t>
+          <t>09/05/2023 12:25</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>3.09</v>
+        <v>2.4</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>06/05/2023 12:13</t>
+          <t>06/05/2023 07:12</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>3.41</v>
+        <v>2.31</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>09/05/2023 12:12</t>
+          <t>09/05/2023 12:25</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-korea/k-league-1/seoul-gwangju-fc/KpLm9DzI/</t>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/daegu-pohang/6sHqAgLB/</t>
         </is>
       </c>
     </row>
@@ -6737,71 +6737,71 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Daegu</t>
+          <t>Seoul</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Pohang</t>
+          <t>Gwangju FC</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>3.05</v>
+        <v>2.41</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>06/05/2023 07:12</t>
+          <t>06/05/2023 12:13</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3.45</v>
+        <v>2.29</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>09/05/2023 12:29</t>
+          <t>09/05/2023 12:07</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.4</v>
+        <v>3.33</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>06/05/2023 07:12</t>
+          <t>06/05/2023 12:13</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.27</v>
+        <v>3.35</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>09/05/2023 12:25</t>
+          <t>09/05/2023 12:08</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.4</v>
+        <v>3.09</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>06/05/2023 07:12</t>
+          <t>06/05/2023 12:13</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.31</v>
+        <v>3.41</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>09/05/2023 12:25</t>
+          <t>09/05/2023 12:12</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-korea/k-league-1/daegu-pohang/6sHqAgLB/</t>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/seoul-gwangju-fc/KpLm9DzI/</t>
         </is>
       </c>
     </row>
@@ -12349,71 +12349,71 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Seoul</t>
+          <t>Daejeon</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Suwon FC</t>
+          <t>Jeonbuk</t>
         </is>
       </c>
       <c r="I130" t="n">
         <v>2</v>
       </c>
       <c r="J130" t="n">
-        <v>1.61</v>
+        <v>3.15</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>08/07/2023 12:42</t>
+          <t>09/07/2023 12:12</t>
         </is>
       </c>
       <c r="L130" t="n">
-        <v>1.58</v>
+        <v>3.42</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>12/07/2023 12:20</t>
+          <t>12/07/2023 12:24</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>4.3</v>
+        <v>3.56</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>08/07/2023 12:42</t>
+          <t>09/07/2023 12:12</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>4.6</v>
+        <v>3.58</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>12/07/2023 12:29</t>
+          <t>12/07/2023 12:24</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>5.5</v>
+        <v>2.31</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
-          <t>08/07/2023 12:42</t>
+          <t>09/07/2023 12:12</t>
         </is>
       </c>
       <c r="T130" t="n">
-        <v>5.54</v>
+        <v>2.19</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>12/07/2023 12:29</t>
+          <t>12/07/2023 12:24</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-korea/k-league-1/seoul-suwon-fc/6oFysX7O/</t>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/daejeon-jeonbuk/f18J5GpP/</t>
         </is>
       </c>
     </row>
@@ -12533,71 +12533,71 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Daejeon</t>
+          <t>Seoul</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Jeonbuk</t>
+          <t>Suwon FC</t>
         </is>
       </c>
       <c r="I132" t="n">
         <v>2</v>
       </c>
       <c r="J132" t="n">
-        <v>3.15</v>
+        <v>1.61</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>09/07/2023 12:12</t>
+          <t>08/07/2023 12:42</t>
         </is>
       </c>
       <c r="L132" t="n">
-        <v>3.42</v>
+        <v>1.58</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>12/07/2023 12:24</t>
+          <t>12/07/2023 12:20</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>3.56</v>
+        <v>4.3</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>09/07/2023 12:12</t>
+          <t>08/07/2023 12:42</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>3.58</v>
+        <v>4.6</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>12/07/2023 12:24</t>
+          <t>12/07/2023 12:29</t>
         </is>
       </c>
       <c r="R132" t="n">
-        <v>2.31</v>
+        <v>5.5</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
-          <t>09/07/2023 12:12</t>
+          <t>08/07/2023 12:42</t>
         </is>
       </c>
       <c r="T132" t="n">
-        <v>2.19</v>
+        <v>5.54</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>12/07/2023 12:24</t>
+          <t>12/07/2023 12:29</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-korea/k-league-1/daejeon-jeonbuk/f18J5GpP/</t>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/seoul-suwon-fc/6oFysX7O/</t>
         </is>
       </c>
     </row>
@@ -16489,22 +16489,22 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Incheon</t>
+          <t>Jeonbuk</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Jeju Utd</t>
+          <t>Gangwon</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J175" t="n">
-        <v>2.45</v>
+        <v>1.6</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -16512,15 +16512,15 @@
         </is>
       </c>
       <c r="L175" t="n">
-        <v>2.44</v>
+        <v>1.73</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>16/09/2023 06:56</t>
+          <t>16/09/2023 06:57</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>3.39</v>
+        <v>4.13</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
@@ -16528,15 +16528,15 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>3.43</v>
+        <v>3.76</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>16/09/2023 06:53</t>
+          <t>16/09/2023 06:57</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>3.04</v>
+        <v>5.93</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
         </is>
       </c>
       <c r="T175" t="n">
-        <v>3.06</v>
+        <v>5.35</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
@@ -16553,7 +16553,7 @@
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-korea/k-league-1/incheon-jeju-utd/4CudWIlr/</t>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/jeonbuk-gangwon/nXhUzatR/</t>
         </is>
       </c>
     </row>
@@ -16581,22 +16581,22 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Jeonbuk</t>
+          <t>Incheon</t>
         </is>
       </c>
       <c r="G176" t="n">
+        <v>2</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Jeju Utd</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
         <v>1</v>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>Gangwon</t>
-        </is>
-      </c>
-      <c r="I176" t="n">
-        <v>3</v>
-      </c>
       <c r="J176" t="n">
-        <v>1.6</v>
+        <v>2.45</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -16604,48 +16604,48 @@
         </is>
       </c>
       <c r="L176" t="n">
-        <v>1.73</v>
+        <v>2.44</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
+          <t>16/09/2023 06:56</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>04/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P176" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>16/09/2023 06:53</t>
+        </is>
+      </c>
+      <c r="R176" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>04/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T176" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="U176" t="inlineStr">
+        <is>
           <t>16/09/2023 06:57</t>
         </is>
       </c>
-      <c r="N176" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="O176" t="inlineStr">
-        <is>
-          <t>04/09/2023 08:42</t>
-        </is>
-      </c>
-      <c r="P176" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="Q176" t="inlineStr">
-        <is>
-          <t>16/09/2023 06:57</t>
-        </is>
-      </c>
-      <c r="R176" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="S176" t="inlineStr">
-        <is>
-          <t>04/09/2023 08:42</t>
-        </is>
-      </c>
-      <c r="T176" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="U176" t="inlineStr">
-        <is>
-          <t>16/09/2023 06:57</t>
-        </is>
-      </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/south-korea/k-league-1/jeonbuk-gangwon/nXhUzatR/</t>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/incheon-jeju-utd/4CudWIlr/</t>
         </is>
       </c>
     </row>
@@ -17198,6 +17198,374 @@
       <c r="V182" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/south-korea/k-league-1/jeju-utd-seoul/l0FajvtE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>south-korea</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>k-league-1</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>45193.29166666666</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Gwangju FC</t>
+        </is>
+      </c>
+      <c r="G183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Jeonbuk</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J183" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>17/09/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>24/09/2023 06:56</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>17/09/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P183" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>24/09/2023 06:55</t>
+        </is>
+      </c>
+      <c r="R183" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="S183" t="inlineStr">
+        <is>
+          <t>17/09/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T183" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="U183" t="inlineStr">
+        <is>
+          <t>24/09/2023 06:56</t>
+        </is>
+      </c>
+      <c r="V183" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/gwangju-fc-jeonbuk/hWtXXVPn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>south-korea</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>k-league-1</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>45193.29166666666</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Suwon FC</t>
+        </is>
+      </c>
+      <c r="G184" t="n">
+        <v>2</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Ulsan Hyundai</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>3</v>
+      </c>
+      <c r="J184" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>17/09/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>24/09/2023 06:59</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>17/09/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P184" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>24/09/2023 06:57</t>
+        </is>
+      </c>
+      <c r="R184" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S184" t="inlineStr">
+        <is>
+          <t>17/09/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T184" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U184" t="inlineStr">
+        <is>
+          <t>24/09/2023 06:36</t>
+        </is>
+      </c>
+      <c r="V184" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/suwon-fc-ulsan-hyundai/b9sTYBAt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>south-korea</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>k-league-1</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>45193.39583333334</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Gangwon</t>
+        </is>
+      </c>
+      <c r="G185" t="n">
+        <v>1</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Incheon</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>1</v>
+      </c>
+      <c r="J185" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>17/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>24/09/2023 09:26</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>17/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P185" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>24/09/2023 09:29</t>
+        </is>
+      </c>
+      <c r="R185" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="S185" t="inlineStr">
+        <is>
+          <t>17/09/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T185" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="U185" t="inlineStr">
+        <is>
+          <t>24/09/2023 09:28</t>
+        </is>
+      </c>
+      <c r="V185" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/gangwon-incheon/WMuyXkug/</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>south-korea</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>k-league-1</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>45193.5</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Daegu</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Pohang</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>17/09/2023 11:12</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>24/09/2023 11:59</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>17/09/2023 11:12</t>
+        </is>
+      </c>
+      <c r="P186" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>24/09/2023 11:59</t>
+        </is>
+      </c>
+      <c r="R186" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="S186" t="inlineStr">
+        <is>
+          <t>17/09/2023 11:12</t>
+        </is>
+      </c>
+      <c r="T186" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="U186" t="inlineStr">
+        <is>
+          <t>24/09/2023 11:59</t>
+        </is>
+      </c>
+      <c r="V186" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/south-korea/k-league-1/daegu-pohang/lbztW9fa/</t>
         </is>
       </c>
     </row>
